--- a/biology/Médecine/Tepotinib/Tepotinib.xlsx
+++ b/biology/Médecine/Tepotinib/Tepotinib.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le tépotinib, est une molécule utilisée comme médicament anticancéreux et  vendu sous la marque Tepmetko[1].
+Le tépotinib, est une molécule utilisée comme médicament anticancéreux et  vendu sous la marque Tepmetko.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un inhibiteur de kinase qui bloque le récepteur du facteur de croissance hépatocytaire (gène MET)[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un inhibiteur de kinase qui bloque le récepteur du facteur de croissance hépatocytaire (gène MET),.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Usage médical</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un médicament utilisé pour traiter le cancer du poumon non à petites cellules [1]. Plus précisément, il est utilisé dans les maladies métastatiques caractérisées par un saut de l'exon 14 de la transition mésenchymateuse-épithéliale [1]. Il se prend par voie orale[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un médicament utilisé pour traiter le cancer du poumon non à petites cellules . Plus précisément, il est utilisé dans les maladies métastatiques caractérisées par un saut de l'exon 14 de la transition mésenchymateuse-épithéliale . Il se prend par voie orale.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets secondaires du médicament comprennent l'enflure, la fatigue, les nausées, la diarrhée, les douleurs musculaires, une faible teneur en sodium et l'essoufflement; [1] d'autres effets secondaires peuvent inclure une pneumopathie et des problèmes hépatiques[1]. L'utilisation pendant la grossesse peut nuire au bébé[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets secondaires du médicament comprennent l'enflure, la fatigue, les nausées, la diarrhée, les douleurs musculaires, une faible teneur en sodium et l'essoufflement;  d'autres effets secondaires peuvent inclure une pneumopathie et des problèmes hépatiques. L'utilisation pendant la grossesse peut nuire au bébé.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le  médicament a été approuvé au Japon en 2020, aux États-Unis en 2021 et en Europe en 2022[1],[3]. Au Royaume-Uni, cela coûte au NHS environ 7 200 livres sterling  par mois à partir de 2022[3]. Ce montant aux États-Unis coûte environ 22 800 dollars américains[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le  médicament a été approuvé au Japon en 2020, aux États-Unis en 2021 et en Europe en 2022,. Au Royaume-Uni, cela coûte au NHS environ 7 200 livres sterling  par mois à partir de 2022. Ce montant aux États-Unis coûte environ 22 800 dollars américains.
 </t>
         </is>
       </c>
